--- a/VRT/VRT.xlsx
+++ b/VRT/VRT.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/VRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="8_{5DEC77E4-2DF9-4BE4-B743-8945F68E6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EB3538-94CF-4743-B77F-46E0A916728B}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="8_{5DEC77E4-2DF9-4BE4-B743-8945F68E6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BF9C1A-1E88-416F-AA7A-BA65BB0C44E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="21600" activeTab="1" xr2:uid="{2F4DF044-5526-47C5-B3DA-A0E80AD45991}"/>
+    <workbookView xWindow="38290" yWindow="300" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{2F4DF044-5526-47C5-B3DA-A0E80AD45991}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="1" r:id="rId3"/>
+    <sheet name="New Model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
   <si>
     <t>Ticker</t>
   </si>
@@ -522,13 +560,83 @@
   <si>
     <t>Vodafone</t>
   </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Foreign currency loss</t>
+  </si>
+  <si>
+    <t>Asset impairments</t>
+  </si>
+  <si>
+    <t>Other expense</t>
+  </si>
+  <si>
+    <t>Total Operating Expense</t>
+  </si>
+  <si>
+    <t>OperatingIncome</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Share/Price</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Other OpEx</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin </t>
+  </si>
+  <si>
+    <t>Operating  Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -616,25 +724,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,6 +762,501 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258D8F83-F659-4E5B-AF86-2491E7074CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18402300" y="36286"/>
+          <a:ext cx="9071" cy="15384236"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=b19hc7&amp;q=XNYS%3aVRT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>b19hc7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>Vertiv Holdings Co (XNYS:VRT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>109.27079999999999</v>
+    <v>25.09</v>
+    <v>1.5948</v>
+    <v>0.64</v>
+    <v>2.2040000000000002E-3</v>
+    <v>8.3680000000000004E-3</v>
+    <v>0.17</v>
+    <v>USD</v>
+    <v>Vertiv Holdings Co. offers digital infrastructure technologies and deployable customized solutions to meet the specific business requirements and needs of a diverse group of customers. Its range of offerings includes alternate current and direct current power management products, switchgear and busbar products, thermal management products, integrated rack systems, modular solutions, and management systems for monitoring and controlling digital infrastructure. These comprehensive offerings are integral to the technologies used for services, such as e-commerce, online banking, file sharing, video on-demand, energy storage, wireless communications, Internet of Things and online gaming. In addition, through its global services network, the Company provides lifecycle management services, predictive analytics and professional services for deploying, maintaining and optimizing these products and their related systems. Its brands include Vertiv, Liebert, NetSure, Geist, Energy Labs and others.</v>
+    <v>27000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>505 N. Cleveland Ave., WESTERVILLE, OH, 43082 US</v>
+    <v>80.5</v>
+    <v>Machinery, Equipment &amp; Components</v>
+    <v>Stock</v>
+    <v>45499.999981503905</v>
+    <v>0</v>
+    <v>76.819999999999993</v>
+    <v>28928720000</v>
+    <v>Vertiv Holdings Co</v>
+    <v>Vertiv Holdings Co</v>
+    <v>79.75</v>
+    <v>60.188899999999997</v>
+    <v>76.48</v>
+    <v>77.12</v>
+    <v>77.290000000000006</v>
+    <v>375113100</v>
+    <v>VRT</v>
+    <v>Vertiv Holdings Co (XNYS:VRT)</v>
+    <v>7834561</v>
+    <v>9785535</v>
+    <v>2016</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="2">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="0">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="4"/>
+    <rSty dxfid="5">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="6">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D28632-2DAF-4F50-8FCB-C2AC8AC57D53}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -3703,7 +4310,7 @@
       </c>
     </row>
     <row r="82" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="5" t="s">
         <v>80</v>
       </c>
       <c r="N82" s="5">
@@ -3720,7 +4327,7 @@
       </c>
     </row>
     <row r="83" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="5" t="s">
         <v>81</v>
       </c>
       <c r="N83" s="5">
@@ -3737,7 +4344,7 @@
       </c>
     </row>
     <row r="84" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="5" t="s">
         <v>82</v>
       </c>
       <c r="N84" s="5">
@@ -3754,7 +4361,7 @@
       </c>
     </row>
     <row r="85" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N85" s="5">
@@ -3771,7 +4378,7 @@
       </c>
     </row>
     <row r="86" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
       <c r="N86" s="5">
@@ -3788,7 +4395,7 @@
       </c>
     </row>
     <row r="87" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="5" t="s">
         <v>85</v>
       </c>
       <c r="N87" s="5">
@@ -3804,81 +4411,81 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="88" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="14" t="s">
+    <row r="88" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="13">
         <f>SUM(H82:H87)</f>
         <v>0</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="13">
         <f t="shared" ref="I88:X88" si="40">SUM(I82:I87)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N88" s="13">
         <f t="shared" si="40"/>
         <v>2555.0000000000005</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O88" s="13">
         <f t="shared" si="40"/>
         <v>4241</v>
       </c>
-      <c r="P88" s="15">
+      <c r="P88" s="13">
         <f t="shared" si="40"/>
         <v>3937</v>
       </c>
-      <c r="Q88" s="15">
+      <c r="Q88" s="13">
         <f t="shared" si="40"/>
         <v>3997.0000000000005</v>
       </c>
-      <c r="R88" s="15">
+      <c r="R88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="S88" s="15">
+      <c r="S88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="T88" s="15">
+      <c r="T88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="U88" s="15">
+      <c r="U88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="V88" s="15">
+      <c r="V88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="W88" s="15">
+      <c r="W88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="X88" s="15">
+      <c r="X88" s="13">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H89" s="11">
@@ -3956,7 +4563,7 @@
       </c>
     </row>
     <row r="91" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
       <c r="N91" s="5">
@@ -3973,7 +4580,7 @@
       </c>
     </row>
     <row r="92" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N92" s="5">
@@ -3990,7 +4597,7 @@
       </c>
     </row>
     <row r="93" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
       <c r="N93" s="5">
@@ -4007,7 +4614,7 @@
       </c>
     </row>
     <row r="94" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
       <c r="N94" s="5">
@@ -4024,7 +4631,7 @@
       </c>
     </row>
     <row r="95" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="N95" s="6">
@@ -4041,7 +4648,7 @@
       </c>
     </row>
     <row r="96" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H96" s="11">
@@ -4119,7 +4726,7 @@
       </c>
     </row>
     <row r="98" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="5" t="s">
         <v>96</v>
       </c>
       <c r="N98" s="5">
@@ -4136,7 +4743,7 @@
       </c>
     </row>
     <row r="99" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N99" s="5">
@@ -4153,7 +4760,7 @@
       </c>
     </row>
     <row r="100" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="5" t="s">
         <v>97</v>
       </c>
       <c r="N100" s="5">
@@ -4170,7 +4777,7 @@
       </c>
     </row>
     <row r="101" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="5" t="s">
         <v>98</v>
       </c>
       <c r="N101" s="5">
@@ -4187,7 +4794,7 @@
       </c>
     </row>
     <row r="102" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
       <c r="N102" s="6">
@@ -4203,81 +4810,81 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="14" t="s">
+    <row r="103" spans="2:24" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="13">
         <f>SUM(H98:H102)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="13">
         <f t="shared" ref="I103:X103" si="43">SUM(I98:I102)</f>
         <v>0</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K103" s="15">
+      <c r="K103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="L103" s="15">
+      <c r="L103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="M103" s="15">
+      <c r="M103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="N103" s="15">
+      <c r="N103" s="13">
         <f t="shared" si="43"/>
         <v>2820.1</v>
       </c>
-      <c r="O103" s="15">
+      <c r="O103" s="13">
         <f t="shared" si="43"/>
         <v>3667.1</v>
       </c>
-      <c r="P103" s="15">
+      <c r="P103" s="13">
         <f t="shared" si="43"/>
         <v>3755.8999999999996</v>
       </c>
-      <c r="Q103" s="15">
+      <c r="Q103" s="13">
         <f t="shared" si="43"/>
         <v>3678.2</v>
       </c>
-      <c r="R103" s="15">
+      <c r="R103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="S103" s="15">
+      <c r="S103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="T103" s="15">
+      <c r="T103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U103" s="15">
+      <c r="U103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="V103" s="15">
+      <c r="V103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="W103" s="15">
+      <c r="W103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="X103" s="15">
+      <c r="X103" s="13">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="11" t="s">
         <v>101</v>
       </c>
       <c r="H104" s="11">
@@ -4796,4 +5403,3553 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08408ECB-000B-45CF-8A10-48F0C3FE2551}">
+  <dimension ref="A1:CU53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="AN23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AX46" sqref="AX46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="24" max="29" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1">
+        <v>2018</v>
+      </c>
+      <c r="Y1">
+        <v>2019</v>
+      </c>
+      <c r="Z1">
+        <v>2020</v>
+      </c>
+      <c r="AA1">
+        <v>2021</v>
+      </c>
+      <c r="AB1">
+        <v>2022</v>
+      </c>
+      <c r="AC1">
+        <v>2023</v>
+      </c>
+      <c r="AD1">
+        <f>AC1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" ref="AE1:AS1" si="0">AD1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="3">
+        <v>43537</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>43902</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>44256</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>44621</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>44984</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" s="3">
+        <f>DATE(YEAR(Y3)-1, MONTH(Y3), DAY(Y3))</f>
+        <v>43465</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>DATE(YEAR(Z3)-1, MONTH(Z3), DAY(Z3))</f>
+        <v>43830</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>DATE(YEAR(AA3)-1, MONTH(AA3), DAY(AA3))</f>
+        <v>44196</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>DATE(YEAR(AB3)-1, MONTH(AB3), DAY(AB3))</f>
+        <v>44561</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>DATE(YEAR(AC3)-1, MONTH(AC3), DAY(AC3))</f>
+        <v>44926</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8">
+        <v>3230.3</v>
+      </c>
+      <c r="Y8">
+        <v>3356.1</v>
+      </c>
+      <c r="Z8">
+        <v>3308.8</v>
+      </c>
+      <c r="AA8">
+        <v>3694.6</v>
+      </c>
+      <c r="AB8">
+        <v>4335.3</v>
+      </c>
+      <c r="AC8">
+        <v>5406.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="4">
+        <v>2865.2</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>2349.1999999999998</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>2290.5</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>2699.7</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>3219.1</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>3575.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <f>N8-N9</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:Z10" si="1">O8-O9</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>365.10000000000036</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>1006.9000000000001</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>1018.3000000000002</v>
+      </c>
+      <c r="AA10">
+        <f>AA8-AA9</f>
+        <v>994.90000000000009</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10:AS10" si="2">AB8-AB9</f>
+        <v>1116.2000000000003</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>1830.4000000000005</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="8" t="e">
+        <f>N10/N8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="8" t="e">
+        <f t="shared" ref="O11:AS11" si="3">O10/O8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11302355818345056</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.30002085754298147</v>
+      </c>
+      <c r="Z11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.30775507736943913</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.26928490228982843</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.25746776462989879</v>
+      </c>
+      <c r="AC11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.33858049240672583</v>
+      </c>
+      <c r="AD11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13">
+        <v>1055.3</v>
+      </c>
+      <c r="Y13">
+        <v>1075.0999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>1061.8</v>
+      </c>
+      <c r="AA13">
+        <v>1303.5</v>
+      </c>
+      <c r="AB13">
+        <v>1356.2</v>
+      </c>
+      <c r="AC13">
+        <v>1457.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:45" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="4">
+        <v>590.70000000000005</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>629</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>606.4</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>775.7</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>856.3</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>N13-N14</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:Z15" si="4">O13-O14</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>464.59999999999991</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>446.09999999999991</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>455.4</v>
+      </c>
+      <c r="AA15">
+        <f>AA13-AA14</f>
+        <v>527.79999999999995</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AS15" si="5">AB13-AB14</f>
+        <v>499.90000000000009</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>570.09999999999991</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="8" t="e">
+        <f>N15/N13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="8" t="e">
+        <f t="shared" ref="O16:AS16" si="6">O15/O13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.44025395622097974</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.41493814528881029</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.42889433038236957</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.40490985807441499</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.36860345081846341</v>
+      </c>
+      <c r="AC16" s="8">
+        <f t="shared" si="6"/>
+        <v>0.39125660558643877</v>
+      </c>
+      <c r="AD16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS16" s="8" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="5">
+        <v>4285.6000000000004</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>4431.2</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>4370.6000000000004</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>5691.5</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>6863.2</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>AC18*(1+AD43)</f>
+        <v>7549.52</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" ref="AE18:AS18" si="7">AD18*(1+AE43)</f>
+        <v>8304.4720000000016</v>
+      </c>
+      <c r="AF18" s="5">
+        <f t="shared" si="7"/>
+        <v>9134.9192000000021</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" si="7"/>
+        <v>10048.411120000002</v>
+      </c>
+      <c r="AH18" s="5">
+        <f t="shared" si="7"/>
+        <v>11053.252232000004</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="7"/>
+        <v>12158.577455200006</v>
+      </c>
+      <c r="AJ18" s="5">
+        <f t="shared" si="7"/>
+        <v>13374.435200720007</v>
+      </c>
+      <c r="AK18" s="5">
+        <f t="shared" si="7"/>
+        <v>14711.878720792009</v>
+      </c>
+      <c r="AL18" s="5">
+        <f t="shared" si="7"/>
+        <v>16183.066592871211</v>
+      </c>
+      <c r="AM18" s="5">
+        <f t="shared" si="7"/>
+        <v>17801.373252158333</v>
+      </c>
+      <c r="AN18" s="5">
+        <f t="shared" si="7"/>
+        <v>19581.510577374167</v>
+      </c>
+      <c r="AO18" s="5">
+        <f t="shared" si="7"/>
+        <v>21539.661635111584</v>
+      </c>
+      <c r="AP18" s="5">
+        <f t="shared" si="7"/>
+        <v>23693.627798622743</v>
+      </c>
+      <c r="AQ18" s="5">
+        <f t="shared" si="7"/>
+        <v>26062.99057848502</v>
+      </c>
+      <c r="AR18" s="5">
+        <f t="shared" si="7"/>
+        <v>28669.289636333524</v>
+      </c>
+      <c r="AS18" s="5">
+        <f t="shared" si="7"/>
+        <v>31536.21859996688</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="6">
+        <v>2865.2</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>2978.2</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>2896.9</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>3475.4</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>4075.4</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>4462.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="5">
+        <f>N18-N19</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" ref="O20:AC20" si="8">O18-O19</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="8"/>
+        <v>1420.4000000000005</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="8"/>
+        <v>1453</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="8"/>
+        <v>1473.7000000000003</v>
+      </c>
+      <c r="AA20" s="5">
+        <f t="shared" si="8"/>
+        <v>1522.7000000000003</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="8"/>
+        <v>1616.1</v>
+      </c>
+      <c r="AC20" s="5">
+        <f t="shared" si="8"/>
+        <v>2400.5</v>
+      </c>
+      <c r="AD20" s="5">
+        <f>AD18*AD50</f>
+        <v>2340.3512000000001</v>
+      </c>
+      <c r="AE20" s="5">
+        <f t="shared" ref="AE20:AS20" si="9">AE18*AE50</f>
+        <v>2574.3863200000005</v>
+      </c>
+      <c r="AF20" s="5">
+        <f t="shared" si="9"/>
+        <v>2831.8249520000008</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" si="9"/>
+        <v>3115.0074472000006</v>
+      </c>
+      <c r="AH20" s="5">
+        <f t="shared" si="9"/>
+        <v>3426.5081919200015</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" si="9"/>
+        <v>3769.1590111120017</v>
+      </c>
+      <c r="AJ20" s="5">
+        <f t="shared" si="9"/>
+        <v>4146.0749122232019</v>
+      </c>
+      <c r="AK20" s="5">
+        <f t="shared" si="9"/>
+        <v>4560.6824034455231</v>
+      </c>
+      <c r="AL20" s="5">
+        <f t="shared" si="9"/>
+        <v>5016.7506437900756</v>
+      </c>
+      <c r="AM20" s="5">
+        <f t="shared" si="9"/>
+        <v>5518.425708169083</v>
+      </c>
+      <c r="AN20" s="5">
+        <f t="shared" si="9"/>
+        <v>6070.2682789859919</v>
+      </c>
+      <c r="AO20" s="5">
+        <f t="shared" si="9"/>
+        <v>6677.2951068845914</v>
+      </c>
+      <c r="AP20" s="5">
+        <f t="shared" si="9"/>
+        <v>7345.0246175730508</v>
+      </c>
+      <c r="AQ20" s="5">
+        <f t="shared" si="9"/>
+        <v>8079.5270793303562</v>
+      </c>
+      <c r="AR20" s="5">
+        <f t="shared" si="9"/>
+        <v>8887.4797872633917</v>
+      </c>
+      <c r="AS20" s="5">
+        <f t="shared" si="9"/>
+        <v>9776.2277659897336</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21" s="5">
+        <v>1223.8</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1100.8</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>1008.4</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1109</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1178.3</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1312.3</v>
+      </c>
+      <c r="AD21" s="5">
+        <f>AC21*1.02</f>
+        <v>1338.546</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" ref="AE21:AS22" si="10">AD21*1.02</f>
+        <v>1365.31692</v>
+      </c>
+      <c r="AF21" s="5">
+        <f t="shared" si="10"/>
+        <v>1392.6232583999999</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="10"/>
+        <v>1420.4757235679999</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="10"/>
+        <v>1448.88523803936</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="10"/>
+        <v>1477.8629428001473</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f t="shared" si="10"/>
+        <v>1507.4202016561503</v>
+      </c>
+      <c r="AK21" s="5">
+        <f t="shared" si="10"/>
+        <v>1537.5686056892735</v>
+      </c>
+      <c r="AL21" s="5">
+        <f t="shared" si="10"/>
+        <v>1568.3199778030589</v>
+      </c>
+      <c r="AM21" s="5">
+        <f t="shared" si="10"/>
+        <v>1599.6863773591201</v>
+      </c>
+      <c r="AN21" s="5">
+        <f t="shared" si="10"/>
+        <v>1631.6801049063026</v>
+      </c>
+      <c r="AO21" s="5">
+        <f t="shared" si="10"/>
+        <v>1664.3137070044288</v>
+      </c>
+      <c r="AP21" s="5">
+        <f t="shared" si="10"/>
+        <v>1697.5999811445174</v>
+      </c>
+      <c r="AQ21" s="5">
+        <f t="shared" si="10"/>
+        <v>1731.5519807674077</v>
+      </c>
+      <c r="AR21" s="5">
+        <f t="shared" si="10"/>
+        <v>1766.1830203827558</v>
+      </c>
+      <c r="AS21" s="5">
+        <f t="shared" si="10"/>
+        <v>1801.5066807904109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>174</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>215.8</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>181.3</v>
+      </c>
+      <c r="AD22" s="5">
+        <f>AC22*1.02</f>
+        <v>184.92600000000002</v>
+      </c>
+      <c r="AE22" s="5">
+        <f t="shared" si="10"/>
+        <v>188.62452000000002</v>
+      </c>
+      <c r="AF22" s="5">
+        <f t="shared" si="10"/>
+        <v>192.39701040000003</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="10"/>
+        <v>196.24495060800004</v>
+      </c>
+      <c r="AH22" s="5">
+        <f t="shared" si="10"/>
+        <v>200.16984962016005</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="10"/>
+        <v>204.17324661256325</v>
+      </c>
+      <c r="AJ22" s="5">
+        <f t="shared" si="10"/>
+        <v>208.25671154481452</v>
+      </c>
+      <c r="AK22" s="5">
+        <f t="shared" si="10"/>
+        <v>212.42184577571081</v>
+      </c>
+      <c r="AL22" s="5">
+        <f t="shared" si="10"/>
+        <v>216.67028269122503</v>
+      </c>
+      <c r="AM22" s="5">
+        <f t="shared" si="10"/>
+        <v>221.00368834504954</v>
+      </c>
+      <c r="AN22" s="5">
+        <f t="shared" si="10"/>
+        <v>225.42376211195054</v>
+      </c>
+      <c r="AO22" s="5">
+        <f t="shared" si="10"/>
+        <v>229.93223735418954</v>
+      </c>
+      <c r="AP22" s="5">
+        <f t="shared" si="10"/>
+        <v>234.53088210127333</v>
+      </c>
+      <c r="AQ22" s="5">
+        <f t="shared" si="10"/>
+        <v>239.22149974329881</v>
+      </c>
+      <c r="AR22" s="5">
+        <f t="shared" si="10"/>
+        <v>244.00592973816478</v>
+      </c>
+      <c r="AS22" s="5">
+        <f t="shared" si="10"/>
+        <v>248.88604833292808</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>28.6</v>
+      </c>
+      <c r="AD23" s="5">
+        <f>AC23*1.05</f>
+        <v>30.03</v>
+      </c>
+      <c r="AE23" s="5">
+        <f>AD23*1.05</f>
+        <v>31.531500000000001</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="5">
+        <f>AC24*1.05</f>
+        <v>16.8</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" ref="AE24:AS24" si="11">AD24*1.05</f>
+        <v>17.64</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" si="11"/>
+        <v>18.522000000000002</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="11"/>
+        <v>19.448100000000004</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="11"/>
+        <v>20.420505000000006</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="11"/>
+        <v>21.441530250000007</v>
+      </c>
+      <c r="AJ24" s="5">
+        <f t="shared" si="11"/>
+        <v>22.513606762500007</v>
+      </c>
+      <c r="AK24" s="5">
+        <f t="shared" si="11"/>
+        <v>23.639287100625008</v>
+      </c>
+      <c r="AL24" s="5">
+        <f t="shared" si="11"/>
+        <v>24.82125145565626</v>
+      </c>
+      <c r="AM24" s="5">
+        <f t="shared" si="11"/>
+        <v>26.062314028439072</v>
+      </c>
+      <c r="AN24" s="5">
+        <f t="shared" si="11"/>
+        <v>27.365429729861027</v>
+      </c>
+      <c r="AO24" s="5">
+        <f t="shared" si="11"/>
+        <v>28.733701216354081</v>
+      </c>
+      <c r="AP24" s="5">
+        <f t="shared" si="11"/>
+        <v>30.170386277171787</v>
+      </c>
+      <c r="AQ24" s="5">
+        <f t="shared" si="11"/>
+        <v>31.678905591030379</v>
+      </c>
+      <c r="AR24" s="5">
+        <f t="shared" si="11"/>
+        <v>33.2628508705819</v>
+      </c>
+      <c r="AS24" s="5">
+        <f t="shared" si="11"/>
+        <v>34.925993414110998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="X26" s="6">
+        <v>178.8</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>146.1</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>251.8</f>
+        <v>251.8</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>-3.8</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>-5.8</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>-9.9</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" s="10">
+        <f>SUM(N21:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" ref="O27:AS27" si="12">SUM(O21:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <f t="shared" si="12"/>
+        <v>1402.6</v>
+      </c>
+      <c r="Y27" s="10">
+        <f t="shared" si="12"/>
+        <v>1246.8999999999999</v>
+      </c>
+      <c r="Z27" s="10">
+        <f t="shared" si="12"/>
+        <v>1434.2</v>
+      </c>
+      <c r="AA27" s="10">
+        <f t="shared" si="12"/>
+        <v>1262.8000000000002</v>
+      </c>
+      <c r="AB27" s="10">
+        <f t="shared" si="12"/>
+        <v>1392.7</v>
+      </c>
+      <c r="AC27" s="10">
+        <f t="shared" si="12"/>
+        <v>1528.2999999999997</v>
+      </c>
+      <c r="AD27" s="10">
+        <f t="shared" si="12"/>
+        <v>1570.3019999999999</v>
+      </c>
+      <c r="AE27" s="10">
+        <f t="shared" si="12"/>
+        <v>1603.1129400000002</v>
+      </c>
+      <c r="AF27" s="10">
+        <f t="shared" si="12"/>
+        <v>1603.5422687999999</v>
+      </c>
+      <c r="AG27" s="10">
+        <f t="shared" si="12"/>
+        <v>1636.1687741759999</v>
+      </c>
+      <c r="AH27" s="10">
+        <f t="shared" si="12"/>
+        <v>1669.4755926595201</v>
+      </c>
+      <c r="AI27" s="10">
+        <f t="shared" si="12"/>
+        <v>1703.4777196627103</v>
+      </c>
+      <c r="AJ27" s="10">
+        <f t="shared" si="12"/>
+        <v>1738.190519963465</v>
+      </c>
+      <c r="AK27" s="10">
+        <f t="shared" si="12"/>
+        <v>1773.6297385656094</v>
+      </c>
+      <c r="AL27" s="10">
+        <f t="shared" si="12"/>
+        <v>1809.8115119499403</v>
+      </c>
+      <c r="AM27" s="10">
+        <f t="shared" si="12"/>
+        <v>1846.7523797326087</v>
+      </c>
+      <c r="AN27" s="10">
+        <f t="shared" si="12"/>
+        <v>1884.4692967481142</v>
+      </c>
+      <c r="AO27" s="10">
+        <f t="shared" si="12"/>
+        <v>1922.9796455749724</v>
+      </c>
+      <c r="AP27" s="10">
+        <f t="shared" si="12"/>
+        <v>1962.3012495229625</v>
+      </c>
+      <c r="AQ27" s="10">
+        <f t="shared" si="12"/>
+        <v>2002.4523861017369</v>
+      </c>
+      <c r="AR27" s="10">
+        <f t="shared" si="12"/>
+        <v>2043.4518009915023</v>
+      </c>
+      <c r="AS27" s="10">
+        <f t="shared" si="12"/>
+        <v>2085.31872253745</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" s="5">
+        <f>N20-N27</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" ref="O28:AS28" si="13">O20-O27</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" si="13"/>
+        <v>17.800000000000637</v>
+      </c>
+      <c r="Y28" s="5">
+        <f t="shared" si="13"/>
+        <v>206.10000000000014</v>
+      </c>
+      <c r="Z28" s="5">
+        <f t="shared" si="13"/>
+        <v>39.500000000000227</v>
+      </c>
+      <c r="AA28" s="5">
+        <f t="shared" si="13"/>
+        <v>259.90000000000009</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" si="13"/>
+        <v>223.39999999999986</v>
+      </c>
+      <c r="AC28" s="5">
+        <f t="shared" si="13"/>
+        <v>872.20000000000027</v>
+      </c>
+      <c r="AD28" s="5">
+        <f t="shared" si="13"/>
+        <v>770.04920000000016</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" si="13"/>
+        <v>971.27338000000032</v>
+      </c>
+      <c r="AF28" s="5">
+        <f t="shared" si="13"/>
+        <v>1228.282683200001</v>
+      </c>
+      <c r="AG28" s="5">
+        <f t="shared" si="13"/>
+        <v>1478.8386730240006</v>
+      </c>
+      <c r="AH28" s="5">
+        <f t="shared" si="13"/>
+        <v>1757.0325992604814</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" si="13"/>
+        <v>2065.6812914492912</v>
+      </c>
+      <c r="AJ28" s="5">
+        <f t="shared" si="13"/>
+        <v>2407.8843922597371</v>
+      </c>
+      <c r="AK28" s="5">
+        <f t="shared" si="13"/>
+        <v>2787.0526648799137</v>
+      </c>
+      <c r="AL28" s="5">
+        <f t="shared" si="13"/>
+        <v>3206.9391318401354</v>
+      </c>
+      <c r="AM28" s="5">
+        <f t="shared" si="13"/>
+        <v>3671.6733284364745</v>
+      </c>
+      <c r="AN28" s="5">
+        <f t="shared" si="13"/>
+        <v>4185.7989822378777</v>
+      </c>
+      <c r="AO28" s="5">
+        <f t="shared" si="13"/>
+        <v>4754.3154613096194</v>
+      </c>
+      <c r="AP28" s="5">
+        <f t="shared" si="13"/>
+        <v>5382.7233680500885</v>
+      </c>
+      <c r="AQ28" s="5">
+        <f t="shared" si="13"/>
+        <v>6077.0746932286193</v>
+      </c>
+      <c r="AR28" s="5">
+        <f t="shared" si="13"/>
+        <v>6844.0279862718889</v>
+      </c>
+      <c r="AS28" s="5">
+        <f t="shared" si="13"/>
+        <v>7690.9090434522841</v>
+      </c>
+    </row>
+    <row r="29" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="X29" s="5">
+        <v>268.8</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>310.39999999999998</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>150.4</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>90.6</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>180.1</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>-59.2</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>61.9</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>-90.9</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>157.9</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="5">
+        <f>N28-SUM(N29:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" ref="O33:AB33" si="14">O28-SUM(O29:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <f t="shared" si="14"/>
+        <v>-250.99999999999937</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" si="14"/>
+        <v>-104.29999999999984</v>
+      </c>
+      <c r="Z33" s="5">
+        <f t="shared" si="14"/>
+        <v>-110.89999999999978</v>
+      </c>
+      <c r="AA33" s="5">
+        <f t="shared" si="14"/>
+        <v>166.2000000000001</v>
+      </c>
+      <c r="AB33" s="5">
+        <f t="shared" si="14"/>
+        <v>166.99999999999986</v>
+      </c>
+      <c r="AC33" s="5">
+        <f>AC28-SUM(AC29:AC32)</f>
+        <v>533.70000000000027</v>
+      </c>
+      <c r="AD33" s="5">
+        <f t="shared" ref="AD33:AS33" si="15">AD28-SUM(AD29:AD32)</f>
+        <v>770.04920000000016</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" si="15"/>
+        <v>971.27338000000032</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" si="15"/>
+        <v>1228.282683200001</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="15"/>
+        <v>1478.8386730240006</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="15"/>
+        <v>1757.0325992604814</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="15"/>
+        <v>2065.6812914492912</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" si="15"/>
+        <v>2407.8843922597371</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="15"/>
+        <v>2787.0526648799137</v>
+      </c>
+      <c r="AL33" s="5">
+        <f t="shared" si="15"/>
+        <v>3206.9391318401354</v>
+      </c>
+      <c r="AM33" s="5">
+        <f t="shared" si="15"/>
+        <v>3671.6733284364745</v>
+      </c>
+      <c r="AN33" s="5">
+        <f t="shared" si="15"/>
+        <v>4185.7989822378777</v>
+      </c>
+      <c r="AO33" s="5">
+        <f t="shared" si="15"/>
+        <v>4754.3154613096194</v>
+      </c>
+      <c r="AP33" s="5">
+        <f t="shared" si="15"/>
+        <v>5382.7233680500885</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f t="shared" si="15"/>
+        <v>6077.0746932286193</v>
+      </c>
+      <c r="AR33" s="5">
+        <f t="shared" si="15"/>
+        <v>6844.0279862718889</v>
+      </c>
+      <c r="AS33" s="5">
+        <f t="shared" si="15"/>
+        <v>7690.9090434522841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:99" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X34" s="6">
+        <f>49.9+6.9</f>
+        <v>56.8</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>90.4</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="AD34" s="6">
+        <f>AD33*(AD53)</f>
+        <v>77.004920000000027</v>
+      </c>
+      <c r="AE34" s="6">
+        <f t="shared" ref="AE34:AS34" si="16">AE33*(AE53)</f>
+        <v>97.127338000000037</v>
+      </c>
+      <c r="AF34" s="6">
+        <f t="shared" si="16"/>
+        <v>122.82826832000011</v>
+      </c>
+      <c r="AG34" s="6">
+        <f t="shared" si="16"/>
+        <v>147.88386730240006</v>
+      </c>
+      <c r="AH34" s="6">
+        <f t="shared" si="16"/>
+        <v>175.70325992604816</v>
+      </c>
+      <c r="AI34" s="6">
+        <f t="shared" si="16"/>
+        <v>206.56812914492912</v>
+      </c>
+      <c r="AJ34" s="6">
+        <f t="shared" si="16"/>
+        <v>240.78843922597372</v>
+      </c>
+      <c r="AK34" s="6">
+        <f t="shared" si="16"/>
+        <v>278.70526648799137</v>
+      </c>
+      <c r="AL34" s="6">
+        <f t="shared" si="16"/>
+        <v>320.69391318401358</v>
+      </c>
+      <c r="AM34" s="6">
+        <f t="shared" si="16"/>
+        <v>367.1673328436475</v>
+      </c>
+      <c r="AN34" s="6">
+        <f t="shared" si="16"/>
+        <v>418.57989822378778</v>
+      </c>
+      <c r="AO34" s="6">
+        <f t="shared" si="16"/>
+        <v>475.43154613096198</v>
+      </c>
+      <c r="AP34" s="6">
+        <f t="shared" si="16"/>
+        <v>538.27233680500888</v>
+      </c>
+      <c r="AQ34" s="6">
+        <f t="shared" si="16"/>
+        <v>607.70746932286193</v>
+      </c>
+      <c r="AR34" s="6">
+        <f t="shared" si="16"/>
+        <v>684.40279862718899</v>
+      </c>
+      <c r="AS34" s="6">
+        <f t="shared" si="16"/>
+        <v>769.09090434522841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="5">
+        <f>N33-N34</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" ref="O35:AS35" si="17">O33-O34</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <f t="shared" si="17"/>
+        <v>-307.79999999999939</v>
+      </c>
+      <c r="Y35" s="5">
+        <f t="shared" si="17"/>
+        <v>-140.79999999999984</v>
+      </c>
+      <c r="Z35" s="5">
+        <f t="shared" si="17"/>
+        <v>-183.5999999999998</v>
+      </c>
+      <c r="AA35" s="5">
+        <f t="shared" si="17"/>
+        <v>119.60000000000011</v>
+      </c>
+      <c r="AB35" s="5">
+        <f t="shared" si="17"/>
+        <v>76.599999999999852</v>
+      </c>
+      <c r="AC35" s="5">
+        <f t="shared" si="17"/>
+        <v>460.20000000000027</v>
+      </c>
+      <c r="AD35" s="5">
+        <f t="shared" si="17"/>
+        <v>693.04428000000007</v>
+      </c>
+      <c r="AE35" s="5">
+        <f>AE33-AE34</f>
+        <v>874.14604200000031</v>
+      </c>
+      <c r="AF35" s="5">
+        <f t="shared" si="17"/>
+        <v>1105.454414880001</v>
+      </c>
+      <c r="AG35" s="5">
+        <f t="shared" si="17"/>
+        <v>1330.9548057216007</v>
+      </c>
+      <c r="AH35" s="5">
+        <f t="shared" si="17"/>
+        <v>1581.3293393344334</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="17"/>
+        <v>1859.113162304362</v>
+      </c>
+      <c r="AJ35" s="5">
+        <f t="shared" si="17"/>
+        <v>2167.0959530337632</v>
+      </c>
+      <c r="AK35" s="5">
+        <f t="shared" si="17"/>
+        <v>2508.3473983919221</v>
+      </c>
+      <c r="AL35" s="5">
+        <f t="shared" si="17"/>
+        <v>2886.2452186561218</v>
+      </c>
+      <c r="AM35" s="5">
+        <f t="shared" si="17"/>
+        <v>3304.5059955928273</v>
+      </c>
+      <c r="AN35" s="5">
+        <f t="shared" si="17"/>
+        <v>3767.2190840140897</v>
+      </c>
+      <c r="AO35" s="5">
+        <f t="shared" si="17"/>
+        <v>4278.8839151786578</v>
+      </c>
+      <c r="AP35" s="5">
+        <f t="shared" si="17"/>
+        <v>4844.4510312450793</v>
+      </c>
+      <c r="AQ35" s="5">
+        <f t="shared" si="17"/>
+        <v>5469.3672239057578</v>
+      </c>
+      <c r="AR35" s="5">
+        <f t="shared" si="17"/>
+        <v>6159.6251876447004</v>
+      </c>
+      <c r="AS35" s="5">
+        <f t="shared" si="17"/>
+        <v>6921.8181391070557</v>
+      </c>
+      <c r="AT35" s="5">
+        <f>AS35*(1+$AX$40)</f>
+        <v>6991.0363204981259</v>
+      </c>
+      <c r="AU35" s="5">
+        <f t="shared" ref="AU35:CU35" si="18">AT35*(1+$AX$40)</f>
+        <v>7060.9466837031068</v>
+      </c>
+      <c r="AV35" s="5">
+        <f t="shared" si="18"/>
+        <v>7131.5561505401383</v>
+      </c>
+      <c r="AW35" s="5">
+        <f t="shared" si="18"/>
+        <v>7202.8717120455394</v>
+      </c>
+      <c r="AX35" s="5">
+        <f t="shared" si="18"/>
+        <v>7274.9004291659949</v>
+      </c>
+      <c r="AY35" s="5">
+        <f t="shared" si="18"/>
+        <v>7347.6494334576546</v>
+      </c>
+      <c r="AZ35" s="5">
+        <f t="shared" si="18"/>
+        <v>7421.1259277922309</v>
+      </c>
+      <c r="BA35" s="5">
+        <f t="shared" si="18"/>
+        <v>7495.337187070153</v>
+      </c>
+      <c r="BB35" s="5">
+        <f t="shared" si="18"/>
+        <v>7570.2905589408547</v>
+      </c>
+      <c r="BC35" s="5">
+        <f t="shared" si="18"/>
+        <v>7645.9934645302637</v>
+      </c>
+      <c r="BD35" s="5">
+        <f t="shared" si="18"/>
+        <v>7722.4533991755661</v>
+      </c>
+      <c r="BE35" s="5">
+        <f t="shared" si="18"/>
+        <v>7799.6779331673215</v>
+      </c>
+      <c r="BF35" s="5">
+        <f t="shared" si="18"/>
+        <v>7877.6747124989952</v>
+      </c>
+      <c r="BG35" s="5">
+        <f t="shared" si="18"/>
+        <v>7956.4514596239851</v>
+      </c>
+      <c r="BH35" s="5">
+        <f t="shared" si="18"/>
+        <v>8036.015974220225</v>
+      </c>
+      <c r="BI35" s="5">
+        <f t="shared" si="18"/>
+        <v>8116.376133962427</v>
+      </c>
+      <c r="BJ35" s="5">
+        <f t="shared" si="18"/>
+        <v>8197.5398953020522</v>
+      </c>
+      <c r="BK35" s="5">
+        <f t="shared" si="18"/>
+        <v>8279.5152942550721</v>
+      </c>
+      <c r="BL35" s="5">
+        <f t="shared" si="18"/>
+        <v>8362.3104471976221</v>
+      </c>
+      <c r="BM35" s="5">
+        <f t="shared" si="18"/>
+        <v>8445.9335516695992</v>
+      </c>
+      <c r="BN35" s="5">
+        <f t="shared" si="18"/>
+        <v>8530.3928871862954</v>
+      </c>
+      <c r="BO35" s="5">
+        <f t="shared" si="18"/>
+        <v>8615.6968160581582</v>
+      </c>
+      <c r="BP35" s="5">
+        <f t="shared" si="18"/>
+        <v>8701.8537842187397</v>
+      </c>
+      <c r="BQ35" s="5">
+        <f t="shared" si="18"/>
+        <v>8788.8723220609281</v>
+      </c>
+      <c r="BR35" s="5">
+        <f t="shared" si="18"/>
+        <v>8876.761045281537</v>
+      </c>
+      <c r="BS35" s="5">
+        <f t="shared" si="18"/>
+        <v>8965.5286557343516</v>
+      </c>
+      <c r="BT35" s="5">
+        <f t="shared" si="18"/>
+        <v>9055.1839422916946</v>
+      </c>
+      <c r="BU35" s="5">
+        <f t="shared" si="18"/>
+        <v>9145.7357817146112</v>
+      </c>
+      <c r="BV35" s="5">
+        <f t="shared" si="18"/>
+        <v>9237.193139531757</v>
+      </c>
+      <c r="BW35" s="5">
+        <f t="shared" si="18"/>
+        <v>9329.565070927074</v>
+      </c>
+      <c r="BX35" s="5">
+        <f t="shared" si="18"/>
+        <v>9422.8607216363453</v>
+      </c>
+      <c r="BY35" s="5">
+        <f t="shared" si="18"/>
+        <v>9517.0893288527095</v>
+      </c>
+      <c r="BZ35" s="5">
+        <f t="shared" si="18"/>
+        <v>9612.2602221412362</v>
+      </c>
+      <c r="CA35" s="5">
+        <f t="shared" si="18"/>
+        <v>9708.3828243626485</v>
+      </c>
+      <c r="CB35" s="5">
+        <f t="shared" si="18"/>
+        <v>9805.4666526062756</v>
+      </c>
+      <c r="CC35" s="5">
+        <f t="shared" si="18"/>
+        <v>9903.5213191323382</v>
+      </c>
+      <c r="CD35" s="5">
+        <f t="shared" si="18"/>
+        <v>10002.556532323662</v>
+      </c>
+      <c r="CE35" s="5">
+        <f t="shared" si="18"/>
+        <v>10102.582097646899</v>
+      </c>
+      <c r="CF35" s="5">
+        <f t="shared" si="18"/>
+        <v>10203.607918623367</v>
+      </c>
+      <c r="CG35" s="5">
+        <f t="shared" si="18"/>
+        <v>10305.6439978096</v>
+      </c>
+      <c r="CH35" s="5">
+        <f t="shared" si="18"/>
+        <v>10408.700437787697</v>
+      </c>
+      <c r="CI35" s="5">
+        <f t="shared" si="18"/>
+        <v>10512.787442165574</v>
+      </c>
+      <c r="CJ35" s="5">
+        <f t="shared" si="18"/>
+        <v>10617.91531658723</v>
+      </c>
+      <c r="CK35" s="5">
+        <f t="shared" si="18"/>
+        <v>10724.094469753103</v>
+      </c>
+      <c r="CL35" s="5">
+        <f t="shared" si="18"/>
+        <v>10831.335414450634</v>
+      </c>
+      <c r="CM35" s="5">
+        <f t="shared" si="18"/>
+        <v>10939.64876859514</v>
+      </c>
+      <c r="CN35" s="5">
+        <f t="shared" si="18"/>
+        <v>11049.045256281091</v>
+      </c>
+      <c r="CO35" s="5">
+        <f t="shared" si="18"/>
+        <v>11159.535708843903</v>
+      </c>
+      <c r="CP35" s="5">
+        <f t="shared" si="18"/>
+        <v>11271.131065932343</v>
+      </c>
+      <c r="CQ35" s="5">
+        <f t="shared" si="18"/>
+        <v>11383.842376591667</v>
+      </c>
+      <c r="CR35" s="5">
+        <f t="shared" si="18"/>
+        <v>11497.680800357584</v>
+      </c>
+      <c r="CS35" s="5">
+        <f t="shared" si="18"/>
+        <v>11612.65760836116</v>
+      </c>
+      <c r="CT35" s="5">
+        <f t="shared" si="18"/>
+        <v>11728.784184444772</v>
+      </c>
+      <c r="CU35" s="5">
+        <f t="shared" si="18"/>
+        <v>11846.072026289219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:99" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="14" t="e">
+        <f>N35/N39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="14" t="e">
+        <f t="shared" ref="O38:AS38" si="19">O35/O39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.6027177175907474</v>
+      </c>
+      <c r="Y38" s="14">
+        <f t="shared" si="19"/>
+        <v>-1.1905869221467758</v>
+      </c>
+      <c r="Z38" s="14">
+        <f t="shared" si="19"/>
+        <v>-0.59789758887050692</v>
+      </c>
+      <c r="AA38" s="14">
+        <f t="shared" si="19"/>
+        <v>0.3363853345984425</v>
+      </c>
+      <c r="AB38" s="14">
+        <f t="shared" si="19"/>
+        <v>0.20332836374214708</v>
+      </c>
+      <c r="AC38" s="14">
+        <f t="shared" si="19"/>
+        <v>1.2105936923244149</v>
+      </c>
+      <c r="AD38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS38" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39" s="15">
+        <v>118.261</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>118.261</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>307.07600000000002</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>355.54463199999998</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>376.73051900000002</v>
+      </c>
+      <c r="AC39" s="15">
+        <v>380.14405900000003</v>
+      </c>
+      <c r="AW39" s="16" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="AW40" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX40" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:99" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AW41" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX41" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:99" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX42" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:99" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="19" t="e">
+        <f>N18/M18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="19" t="e">
+        <f t="shared" ref="O43:AC43" si="20">O18/N18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y43" s="19">
+        <f t="shared" si="20"/>
+        <v>3.3974239313048216E-2</v>
+      </c>
+      <c r="Z43" s="19">
+        <f t="shared" si="20"/>
+        <v>-1.3675753746163477E-2</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" si="20"/>
+        <v>0.14357296481032344</v>
+      </c>
+      <c r="AB43" s="19">
+        <f t="shared" si="20"/>
+        <v>0.1387327184330045</v>
+      </c>
+      <c r="AC43" s="19">
+        <f t="shared" si="20"/>
+        <v>0.20586840024598074</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AE43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AF43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AG43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AH43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AI43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AJ43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AK43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AL43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AM43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AN43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AO43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AP43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AQ43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AR43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AS43" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AW43" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX43" s="20">
+        <f>NPV(AX42,AT35:CU35)</f>
+        <v>76904.702859584067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC44">
+        <f>AC35/AB35-1</f>
+        <v>5.0078328981723388</v>
+      </c>
+      <c r="AW44" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX44" s="21">
+        <f>AX43/AC39</f>
+        <v>202.30410298108609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW45" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX45" s="21" cm="1">
+        <f t="array" ref="AX45">_FV(AW39,"Price")</f>
+        <v>77.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:99" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" s="8" t="e">
+        <f>N21/M21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="8" t="e">
+        <f t="shared" ref="O46:AB46" si="21">O21/N21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X46" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y46" s="8">
+        <f t="shared" si="21"/>
+        <v>-0.10050661872855038</v>
+      </c>
+      <c r="Z46" s="8">
+        <f t="shared" si="21"/>
+        <v>-8.3938953488372103E-2</v>
+      </c>
+      <c r="AA46" s="8">
+        <f t="shared" si="21"/>
+        <v>9.9761999206664065E-2</v>
+      </c>
+      <c r="AB46" s="8">
+        <f t="shared" si="21"/>
+        <v>6.2488728584310094E-2</v>
+      </c>
+      <c r="AC46" s="8">
+        <f>AC21/AB21-1</f>
+        <v>0.11372316048544517</v>
+      </c>
+      <c r="AW46" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX46" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:99" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="8" t="e">
+        <f>SUM(N23:N26)/SUM(M23:M26)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="8" t="e">
+        <f t="shared" ref="O47:AB47" si="22">SUM(O23:O26)/SUM(N23:N26)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X47" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y47" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.18288590604026855</v>
+      </c>
+      <c r="Z47" s="8">
+        <f t="shared" si="22"/>
+        <v>0.72347707049965782</v>
+      </c>
+      <c r="AA47" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.96227164416203337</v>
+      </c>
+      <c r="AB47" s="8">
+        <f t="shared" si="22"/>
+        <v>-1.1473684210526316</v>
+      </c>
+      <c r="AC47" s="8">
+        <f>SUM(AC23:AC26)/SUM(AB23:AB26)-1</f>
+        <v>-25.785714285714299</v>
+      </c>
+    </row>
+    <row r="49" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N50" s="8" t="e">
+        <f>N20/N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="8" t="e">
+        <f t="shared" ref="O50:AC50" si="23">O20/O18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.33143550494679869</v>
+      </c>
+      <c r="Y50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.32790214840223869</v>
+      </c>
+      <c r="Z50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.33718482588202997</v>
+      </c>
+      <c r="AA50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.30465576919229309</v>
+      </c>
+      <c r="AB50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.28394974962663622</v>
+      </c>
+      <c r="AC50" s="8">
+        <f t="shared" si="23"/>
+        <v>0.34976395850332209</v>
+      </c>
+      <c r="AD50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AE50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AF50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AG50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AH50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AI50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AJ50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AK50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AL50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AM50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AN50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AO50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AP50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AQ50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AR50" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AS50" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N51" s="8" t="e">
+        <f>N28/N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="8" t="e">
+        <f t="shared" ref="O51:AC51" si="24">O28/O18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W51" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X51" s="8">
+        <f t="shared" si="24"/>
+        <v>4.153444091842597E-3</v>
+      </c>
+      <c r="Y51" s="8">
+        <f t="shared" si="24"/>
+        <v>4.6511103087199891E-2</v>
+      </c>
+      <c r="Z51" s="8">
+        <f t="shared" si="24"/>
+        <v>9.0376607330801776E-3</v>
+      </c>
+      <c r="AA51" s="8">
+        <f t="shared" si="24"/>
+        <v>5.1999759908765347E-2</v>
+      </c>
+      <c r="AB51" s="8">
+        <f t="shared" si="24"/>
+        <v>3.9251515417728165E-2</v>
+      </c>
+      <c r="AC51" s="8">
+        <f t="shared" si="24"/>
+        <v>0.12708357617437935</v>
+      </c>
+    </row>
+    <row r="52" spans="2:45" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N52" s="8" t="e">
+        <f>N35/N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="8" t="e">
+        <f t="shared" ref="O52:AC52" si="25">O35/O18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W52" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X52" s="8">
+        <f t="shared" si="25"/>
+        <v>-7.1821915251073218E-2</v>
+      </c>
+      <c r="Y52" s="8">
+        <f t="shared" si="25"/>
+        <v>-3.1774688571944362E-2</v>
+      </c>
+      <c r="Z52" s="8">
+        <f t="shared" si="25"/>
+        <v>-4.2007962293506562E-2</v>
+      </c>
+      <c r="AA52" s="8">
+        <f t="shared" si="25"/>
+        <v>2.3929093055361058E-2</v>
+      </c>
+      <c r="AB52" s="8">
+        <f t="shared" si="25"/>
+        <v>1.3458666432399166E-2</v>
+      </c>
+      <c r="AC52" s="8">
+        <f t="shared" si="25"/>
+        <v>6.7053269611842908E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:45" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" s="19" t="e">
+        <f>N34/N33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="19" t="e">
+        <f t="shared" ref="O53:AC53" si="26">O34/O33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W53" s="19" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X53" s="19">
+        <f t="shared" si="26"/>
+        <v>-0.22629482071713203</v>
+      </c>
+      <c r="Y53" s="19">
+        <f t="shared" si="26"/>
+        <v>-0.34995206136145784</v>
+      </c>
+      <c r="Z53" s="19">
+        <f t="shared" si="26"/>
+        <v>-0.65554553651938818</v>
+      </c>
+      <c r="AA53" s="19">
+        <f t="shared" si="26"/>
+        <v>0.2803850782190131</v>
+      </c>
+      <c r="AB53" s="19">
+        <f t="shared" si="26"/>
+        <v>0.54131736526946161</v>
+      </c>
+      <c r="AC53" s="19">
+        <f t="shared" si="26"/>
+        <v>0.13771781899943783</v>
+      </c>
+      <c r="AD53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AE53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AF53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AG53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AH53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AI53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AJ53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AK53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AL53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AM53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AN53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AO53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AP53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AQ53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AR53" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AS53" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>